--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>LÓGICAS INMM</t>
   </si>
   <si>
-    <t>LÓGICAS ARITM</t>
-  </si>
-  <si>
     <t>JUMP</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>XX</t>
+  </si>
+  <si>
+    <t>ARITMÉTICA INMM</t>
   </si>
 </sst>
 </file>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,31 +515,31 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -609,22 +609,22 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -641,7 +641,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -656,13 +656,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -732,31 +732,31 @@
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
